--- a/SE202526/Management/Sprint3/Burndown_Chart_Sprint_3.xlsx
+++ b/SE202526/Management/Sprint3/Burndown_Chart_Sprint_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldmua\OneDrive\Documentos\Luis-Uni.NOVA\Cadeiras\3º ANO\1ºSemestre\ES\projeto\SE202526\Management\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2BA738-09F3-4342-856B-C98C6A07B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E3130-3EFD-46BD-9141-D80FC3D354AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,6 +794,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,19 +931,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,25 +1047,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1134,28 +1134,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.2</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.8</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.200000000000003</c:v>
+                  <c:v>8.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>6.2999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1237,7 @@
         <c:axId val="651575774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1303,8 +1303,8 @@
         <c:crossAx val="1197652190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1612,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="52"/>
@@ -1623,10 +1623,10 @@
       <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1655,8 +1655,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1690,21 +1690,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="36"/>
       <c r="G6" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="J6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="12">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
@@ -1727,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="18">
         <v>1</v>
       </c>
       <c r="K7" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1744,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="17">
@@ -1753,10 +1753,10 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="18">
         <v>1</v>
@@ -1934,23 +1934,23 @@
       </c>
       <c r="G20" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J20" s="26">
         <f t="shared" ref="J20:K20" si="1">SUM(J6:J19)</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,31 +1960,31 @@
       <c r="C21" s="41"/>
       <c r="D21" s="27">
         <f>SUM(D6:D20)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" ref="E21:I21" si="2">D21-SUM(E6:E19)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J21" s="30">
         <f t="shared" ref="J21" si="3">I21-SUM(J6:J19)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" s="30">
         <f t="shared" ref="K21" si="4">J21-SUM(K6:K19)</f>
@@ -1998,35 +1998,35 @@
       <c r="C22" s="43"/>
       <c r="D22" s="31">
         <f>D21</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E22" s="32">
         <f>$D$22-($D$22/10*1)</f>
-        <v>25.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F22" s="32">
         <f>$D$22-($D$22/10*2)</f>
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
       <c r="G22" s="32">
         <f>$D$22-($D$22/10*3)</f>
-        <v>19.600000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="H22" s="32">
         <f>$D$22-($D$22/10*4)</f>
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="I22" s="33">
         <f>$D$22-($D$22/10*5)</f>
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="J22" s="33">
         <f>$D$22-($D$22/10*6)</f>
-        <v>11.200000000000003</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="K22" s="33">
         <f>$D$22-($D$22/10*7)</f>
-        <v>8.4000000000000021</v>
+        <v>6.2999999999999989</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
